--- a/natmiOut/YoungD7/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Cspg4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>90.63679574780561</v>
+        <v>5.392385333333333</v>
       </c>
       <c r="H2">
-        <v>90.63679574780561</v>
+        <v>16.177156</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.04998147672264548</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.04998147672264548</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03881418745127</v>
+        <v>1.577167666666667</v>
       </c>
       <c r="N2">
-        <v>1.03881418745127</v>
+        <v>4.731503</v>
       </c>
       <c r="O2">
-        <v>0.03957566921235033</v>
+        <v>0.05487405574265763</v>
       </c>
       <c r="P2">
-        <v>0.03957566921235033</v>
+        <v>0.05487405574265762</v>
       </c>
       <c r="Q2">
-        <v>94.1547893279434</v>
+        <v>8.50469579394089</v>
       </c>
       <c r="R2">
-        <v>94.1547893279434</v>
+        <v>76.542262145468</v>
       </c>
       <c r="S2">
-        <v>0.03957566921235033</v>
+        <v>0.002742686339778793</v>
       </c>
       <c r="T2">
-        <v>0.03957566921235033</v>
+        <v>0.002742686339778793</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -596,49 +596,49 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>90.63679574780561</v>
+        <v>5.392385333333333</v>
       </c>
       <c r="H3">
-        <v>90.63679574780561</v>
+        <v>16.177156</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.04998147672264548</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.04998147672264548</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>12.0408738439599</v>
+        <v>12.088216</v>
       </c>
       <c r="N3">
-        <v>12.0408738439599</v>
+        <v>36.264648</v>
       </c>
       <c r="O3">
-        <v>0.4587207664590658</v>
+        <v>0.4205827019109694</v>
       </c>
       <c r="P3">
-        <v>0.4587207664590658</v>
+        <v>0.4205827019109694</v>
       </c>
       <c r="Q3">
-        <v>1091.346223220088</v>
+        <v>65.18431866456534</v>
       </c>
       <c r="R3">
-        <v>1091.346223220088</v>
+        <v>586.6588679810881</v>
       </c>
       <c r="S3">
-        <v>0.4587207664590658</v>
+        <v>0.02102134452551046</v>
       </c>
       <c r="T3">
-        <v>0.4587207664590658</v>
+        <v>0.02102134452551046</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,371 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>5.392385333333333</v>
+      </c>
+      <c r="H4">
+        <v>16.177156</v>
+      </c>
+      <c r="I4">
+        <v>0.04998147672264548</v>
+      </c>
+      <c r="J4">
+        <v>0.04998147672264548</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M4">
+        <v>0.06147399999999999</v>
+      </c>
+      <c r="N4">
+        <v>0.184422</v>
+      </c>
+      <c r="O4">
+        <v>0.002138851673172859</v>
+      </c>
+      <c r="P4">
+        <v>0.002138851673172859</v>
+      </c>
+      <c r="Q4">
+        <v>0.3314914959813333</v>
+      </c>
+      <c r="R4">
+        <v>2.983423463832</v>
+      </c>
+      <c r="S4">
+        <v>0.0001069029651158806</v>
+      </c>
+      <c r="T4">
+        <v>0.0001069029651158806</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>90.63679574780561</v>
-      </c>
-      <c r="H4">
-        <v>90.63679574780561</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>13.1691211012235</v>
-      </c>
-      <c r="N4">
-        <v>13.1691211012235</v>
-      </c>
-      <c r="O4">
-        <v>0.501703564328584</v>
-      </c>
-      <c r="P4">
-        <v>0.501703564328584</v>
-      </c>
-      <c r="Q4">
-        <v>1193.606939429711</v>
-      </c>
-      <c r="R4">
-        <v>1193.606939429711</v>
-      </c>
-      <c r="S4">
-        <v>0.501703564328584</v>
-      </c>
-      <c r="T4">
-        <v>0.501703564328584</v>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>5.392385333333333</v>
+      </c>
+      <c r="H5">
+        <v>16.177156</v>
+      </c>
+      <c r="I5">
+        <v>0.04998147672264548</v>
+      </c>
+      <c r="J5">
+        <v>0.04998147672264548</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>15.01473333333333</v>
+      </c>
+      <c r="N5">
+        <v>45.0442</v>
+      </c>
+      <c r="O5">
+        <v>0.5224043906732001</v>
+      </c>
+      <c r="P5">
+        <v>0.5224043906732001</v>
+      </c>
+      <c r="Q5">
+        <v>80.96522781057777</v>
+      </c>
+      <c r="R5">
+        <v>728.6870502951999</v>
+      </c>
+      <c r="S5">
+        <v>0.02611054289224035</v>
+      </c>
+      <c r="T5">
+        <v>0.02611054289224035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>102.49529</v>
+      </c>
+      <c r="H6">
+        <v>307.48587</v>
+      </c>
+      <c r="I6">
+        <v>0.9500185232773545</v>
+      </c>
+      <c r="J6">
+        <v>0.9500185232773545</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1.577167666666667</v>
+      </c>
+      <c r="N6">
+        <v>4.731503</v>
+      </c>
+      <c r="O6">
+        <v>0.05487405574265763</v>
+      </c>
+      <c r="P6">
+        <v>0.05487405574265762</v>
+      </c>
+      <c r="Q6">
+        <v>161.6522573736233</v>
+      </c>
+      <c r="R6">
+        <v>1454.87031636261</v>
+      </c>
+      <c r="S6">
+        <v>0.05213136940287883</v>
+      </c>
+      <c r="T6">
+        <v>0.05213136940287882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>102.49529</v>
+      </c>
+      <c r="H7">
+        <v>307.48587</v>
+      </c>
+      <c r="I7">
+        <v>0.9500185232773545</v>
+      </c>
+      <c r="J7">
+        <v>0.9500185232773545</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>12.088216</v>
+      </c>
+      <c r="N7">
+        <v>36.264648</v>
+      </c>
+      <c r="O7">
+        <v>0.4205827019109694</v>
+      </c>
+      <c r="P7">
+        <v>0.4205827019109694</v>
+      </c>
+      <c r="Q7">
+        <v>1238.98520450264</v>
+      </c>
+      <c r="R7">
+        <v>11150.86684052376</v>
+      </c>
+      <c r="S7">
+        <v>0.3995613573854589</v>
+      </c>
+      <c r="T7">
+        <v>0.3995613573854589</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>102.49529</v>
+      </c>
+      <c r="H8">
+        <v>307.48587</v>
+      </c>
+      <c r="I8">
+        <v>0.9500185232773545</v>
+      </c>
+      <c r="J8">
+        <v>0.9500185232773545</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.06147399999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.184422</v>
+      </c>
+      <c r="O8">
+        <v>0.002138851673172859</v>
+      </c>
+      <c r="P8">
+        <v>0.002138851673172859</v>
+      </c>
+      <c r="Q8">
+        <v>6.30079545746</v>
+      </c>
+      <c r="R8">
+        <v>56.70715911713999</v>
+      </c>
+      <c r="S8">
+        <v>0.002031948708056979</v>
+      </c>
+      <c r="T8">
+        <v>0.002031948708056979</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>102.49529</v>
+      </c>
+      <c r="H9">
+        <v>307.48587</v>
+      </c>
+      <c r="I9">
+        <v>0.9500185232773545</v>
+      </c>
+      <c r="J9">
+        <v>0.9500185232773545</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>15.01473333333333</v>
+      </c>
+      <c r="N9">
+        <v>45.0442</v>
+      </c>
+      <c r="O9">
+        <v>0.5224043906732001</v>
+      </c>
+      <c r="P9">
+        <v>0.5224043906732001</v>
+      </c>
+      <c r="Q9">
+        <v>1538.939447272666</v>
+      </c>
+      <c r="R9">
+        <v>13850.455025454</v>
+      </c>
+      <c r="S9">
+        <v>0.4962938477809598</v>
+      </c>
+      <c r="T9">
+        <v>0.4962938477809598</v>
       </c>
     </row>
   </sheetData>
